--- a/data/pca/factorExposure/factorExposure_2015-05-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-05-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01983475438248211</v>
+        <v>0.01150159413329348</v>
       </c>
       <c r="C2">
-        <v>0.01897827538680638</v>
+        <v>-0.05142277875737757</v>
       </c>
       <c r="D2">
-        <v>0.1036408053001462</v>
+        <v>0.1264873765893722</v>
       </c>
       <c r="E2">
-        <v>-0.009059811757461466</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02251776835998294</v>
+      </c>
+      <c r="F2">
+        <v>0.02979673467439155</v>
+      </c>
+      <c r="G2">
+        <v>0.1153609180750778</v>
+      </c>
+      <c r="H2">
+        <v>0.07803176712490992</v>
+      </c>
+      <c r="I2">
+        <v>0.1182989034104469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.0008512855869983294</v>
+        <v>6.794526553529499e-05</v>
       </c>
       <c r="C3">
-        <v>0.001254131110219638</v>
+        <v>-0.0009102849118859271</v>
       </c>
       <c r="D3">
-        <v>-0.008893670365538824</v>
+        <v>-0.00354126815528357</v>
       </c>
       <c r="E3">
-        <v>0.00261401659562256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.006341573610350117</v>
+      </c>
+      <c r="F3">
+        <v>-0.003674058563305827</v>
+      </c>
+      <c r="G3">
+        <v>0.007078100477063329</v>
+      </c>
+      <c r="H3">
+        <v>-0.01052695417519877</v>
+      </c>
+      <c r="I3">
+        <v>-0.003766447658796448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0444535328413096</v>
+        <v>0.01984244847260971</v>
       </c>
       <c r="C4">
-        <v>0.07259574916308349</v>
+        <v>-0.1049003615186426</v>
       </c>
       <c r="D4">
-        <v>0.1281826498654634</v>
+        <v>0.1300937575192492</v>
       </c>
       <c r="E4">
-        <v>-0.08342506337974837</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.009331885142284719</v>
+      </c>
+      <c r="F4">
+        <v>0.08913093781636311</v>
+      </c>
+      <c r="G4">
+        <v>0.005392928402537023</v>
+      </c>
+      <c r="H4">
+        <v>0.04107167078471417</v>
+      </c>
+      <c r="I4">
+        <v>-0.07457695125283409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02160889890785868</v>
+        <v>0.02764097146112817</v>
       </c>
       <c r="C6">
-        <v>0.01243121824639747</v>
+        <v>-0.03395401830260066</v>
       </c>
       <c r="D6">
-        <v>0.1354253942264508</v>
+        <v>0.1196854912810363</v>
       </c>
       <c r="E6">
-        <v>-0.03750982123925048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.05856181929670488</v>
+      </c>
+      <c r="F6">
+        <v>0.04725359716388286</v>
+      </c>
+      <c r="G6">
+        <v>0.002631466574405658</v>
+      </c>
+      <c r="H6">
+        <v>0.04604345343902249</v>
+      </c>
+      <c r="I6">
+        <v>-0.02911565725508931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.002561100878096421</v>
+        <v>0.009877511141470376</v>
       </c>
       <c r="C7">
-        <v>0.02383821856693942</v>
+        <v>-0.03652021969637137</v>
       </c>
       <c r="D7">
-        <v>0.1096236712399749</v>
+        <v>0.09636380580680641</v>
       </c>
       <c r="E7">
-        <v>-0.00380043841987566</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.05287051880119169</v>
+      </c>
+      <c r="F7">
+        <v>0.01116882147891609</v>
+      </c>
+      <c r="G7">
+        <v>-0.009365819115178975</v>
+      </c>
+      <c r="H7">
+        <v>0.08002032903824019</v>
+      </c>
+      <c r="I7">
+        <v>-0.007611061111668508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.004598266369721609</v>
+        <v>-0.007783303704242208</v>
       </c>
       <c r="C8">
-        <v>0.02581058973464678</v>
+        <v>-0.03453076201660149</v>
       </c>
       <c r="D8">
-        <v>0.07822445861355337</v>
+        <v>0.07436509318335256</v>
       </c>
       <c r="E8">
-        <v>-0.02361645261855766</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.03905036612720383</v>
+      </c>
+      <c r="F8">
+        <v>0.04796061714305742</v>
+      </c>
+      <c r="G8">
+        <v>0.06206805829635166</v>
+      </c>
+      <c r="H8">
+        <v>0.01047645055009728</v>
+      </c>
+      <c r="I8">
+        <v>0.001011394108407405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03615788553319156</v>
+        <v>0.01400102378100118</v>
       </c>
       <c r="C9">
-        <v>0.0615310366033332</v>
+        <v>-0.08691867690484928</v>
       </c>
       <c r="D9">
-        <v>0.1317098158990803</v>
+        <v>0.1146539195987182</v>
       </c>
       <c r="E9">
-        <v>-0.06707663396284974</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01181380672192812</v>
+      </c>
+      <c r="F9">
+        <v>0.0603166859884478</v>
+      </c>
+      <c r="G9">
+        <v>-0.01370875062173871</v>
+      </c>
+      <c r="H9">
+        <v>0.05622135851112579</v>
+      </c>
+      <c r="I9">
+        <v>-0.04317728952607025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1713501030605111</v>
+        <v>0.2393866172238815</v>
       </c>
       <c r="C10">
-        <v>-0.1703417705824274</v>
+        <v>0.09617553162120666</v>
       </c>
       <c r="D10">
-        <v>0.003252176179573297</v>
+        <v>-0.003003103692565982</v>
       </c>
       <c r="E10">
-        <v>-0.04481402462104479</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01085005988726689</v>
+      </c>
+      <c r="F10">
+        <v>0.04428097606170227</v>
+      </c>
+      <c r="G10">
+        <v>0.0004010558987240412</v>
+      </c>
+      <c r="H10">
+        <v>-0.04351494435885984</v>
+      </c>
+      <c r="I10">
+        <v>0.05037643222769405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.0188676548367409</v>
+        <v>0.01087286116044308</v>
       </c>
       <c r="C11">
-        <v>0.04093399583163612</v>
+        <v>-0.05484814515118996</v>
       </c>
       <c r="D11">
-        <v>0.04658462149081034</v>
+        <v>0.04366102756953056</v>
       </c>
       <c r="E11">
-        <v>0.01561679984750064</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01968766205685428</v>
+      </c>
+      <c r="F11">
+        <v>-0.01162662966595009</v>
+      </c>
+      <c r="G11">
+        <v>-0.006399928839267424</v>
+      </c>
+      <c r="H11">
+        <v>0.04430322470840209</v>
+      </c>
+      <c r="I11">
+        <v>-0.06229426343377146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01970751158485405</v>
+        <v>0.01097046245198</v>
       </c>
       <c r="C12">
-        <v>0.03987811871438282</v>
+        <v>-0.04902782447323824</v>
       </c>
       <c r="D12">
-        <v>0.06004575854557209</v>
+        <v>0.04766395082642408</v>
       </c>
       <c r="E12">
-        <v>0.004785070667709143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01528367863735772</v>
+      </c>
+      <c r="F12">
+        <v>-0.01442381009806794</v>
+      </c>
+      <c r="G12">
+        <v>-0.02556133659607956</v>
+      </c>
+      <c r="H12">
+        <v>0.06470009106305828</v>
+      </c>
+      <c r="I12">
+        <v>-0.03532254665035648</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.001762489783844972</v>
+        <v>-0.002033901378152244</v>
       </c>
       <c r="C13">
-        <v>0.02235310924969578</v>
+        <v>-0.04609047100838922</v>
       </c>
       <c r="D13">
-        <v>0.1443293748223196</v>
+        <v>0.1517969878715484</v>
       </c>
       <c r="E13">
-        <v>-0.03682003167120274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03978748129907662</v>
+      </c>
+      <c r="F13">
+        <v>0.03620025818979637</v>
+      </c>
+      <c r="G13">
+        <v>0.01322531339935943</v>
+      </c>
+      <c r="H13">
+        <v>0.07455687194710715</v>
+      </c>
+      <c r="I13">
+        <v>0.09332124370320194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.005400772164315581</v>
+        <v>0.001664617125699039</v>
       </c>
       <c r="C14">
-        <v>0.0162920715091522</v>
+        <v>-0.03033804590054796</v>
       </c>
       <c r="D14">
-        <v>0.09577865554592654</v>
+        <v>0.1025177037070952</v>
       </c>
       <c r="E14">
-        <v>-0.01160789050802899</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.04986780663720287</v>
+      </c>
+      <c r="F14">
+        <v>0.03845229339554421</v>
+      </c>
+      <c r="G14">
+        <v>0.01356862418379415</v>
+      </c>
+      <c r="H14">
+        <v>0.12848815299028</v>
+      </c>
+      <c r="I14">
+        <v>-0.007459259392709266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.00278521616945191</v>
+        <v>-0.001420487461049263</v>
       </c>
       <c r="C15">
-        <v>0.01068474854130841</v>
+        <v>-0.02508576332343448</v>
       </c>
       <c r="D15">
-        <v>0.03103294383628145</v>
+        <v>0.05931450789194972</v>
       </c>
       <c r="E15">
-        <v>0.003855413940921193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.01039029195320429</v>
+      </c>
+      <c r="F15">
+        <v>0.007109808084690572</v>
+      </c>
+      <c r="G15">
+        <v>0.01864103433427704</v>
+      </c>
+      <c r="H15">
+        <v>0.03324759018512423</v>
+      </c>
+      <c r="I15">
+        <v>-0.02375475050865117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01842277352620349</v>
+        <v>0.01078088915415711</v>
       </c>
       <c r="C16">
-        <v>0.03675328879129828</v>
+        <v>-0.04842286175281724</v>
       </c>
       <c r="D16">
-        <v>0.05239502434884499</v>
+        <v>0.04345180823249703</v>
       </c>
       <c r="E16">
-        <v>0.007345268121209039</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02117430970074014</v>
+      </c>
+      <c r="F16">
+        <v>-0.007482758929222838</v>
+      </c>
+      <c r="G16">
+        <v>-0.01722235202760056</v>
+      </c>
+      <c r="H16">
+        <v>0.04524466262446464</v>
+      </c>
+      <c r="I16">
+        <v>-0.05943299295991426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.004317944101380504</v>
+        <v>0.0004842759613643377</v>
       </c>
       <c r="C19">
-        <v>0.01804192939869114</v>
+        <v>-0.01744770907683688</v>
       </c>
       <c r="D19">
-        <v>0.104297000429107</v>
+        <v>0.06450679263222855</v>
       </c>
       <c r="E19">
-        <v>-0.04307037021466054</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.01024121629526721</v>
+      </c>
+      <c r="F19">
+        <v>0.01559397204183222</v>
+      </c>
+      <c r="G19">
+        <v>0.0114413123565007</v>
+      </c>
+      <c r="H19">
+        <v>0.05910826683600953</v>
+      </c>
+      <c r="I19">
+        <v>0.03240823255484326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.002419044388341198</v>
+        <v>0.005740823749380551</v>
       </c>
       <c r="C20">
-        <v>0.02372863084263745</v>
+        <v>-0.03975842131779276</v>
       </c>
       <c r="D20">
-        <v>0.08435225101855383</v>
+        <v>0.09249736971927153</v>
       </c>
       <c r="E20">
-        <v>-0.03470091539652514</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02345148285478825</v>
+      </c>
+      <c r="F20">
+        <v>0.02976045046711754</v>
+      </c>
+      <c r="G20">
+        <v>-0.005774935199363996</v>
+      </c>
+      <c r="H20">
+        <v>0.05412791083696981</v>
+      </c>
+      <c r="I20">
+        <v>-0.04881217456856668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.005425923405065364</v>
+        <v>0.005486159074421777</v>
       </c>
       <c r="C21">
-        <v>0.02808904447039744</v>
+        <v>-0.04467605481983888</v>
       </c>
       <c r="D21">
-        <v>0.1632300604580712</v>
+        <v>0.1322940621369992</v>
       </c>
       <c r="E21">
-        <v>-0.07605518803665708</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03071456737531242</v>
+      </c>
+      <c r="F21">
+        <v>0.1000678336501467</v>
+      </c>
+      <c r="G21">
+        <v>0.0212672879110717</v>
+      </c>
+      <c r="H21">
+        <v>0.1947381797666679</v>
+      </c>
+      <c r="I21">
+        <v>0.1251737110700559</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.002335801729357531</v>
+        <v>-0.01161281774313491</v>
       </c>
       <c r="C22">
-        <v>0.06329055661328191</v>
+        <v>-0.08668036871735969</v>
       </c>
       <c r="D22">
-        <v>0.2483689570747225</v>
+        <v>0.2545640546648879</v>
       </c>
       <c r="E22">
-        <v>0.0187140108664245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.06022825091717735</v>
+      </c>
+      <c r="F22">
+        <v>0.002398353568828237</v>
+      </c>
+      <c r="G22">
+        <v>0.3879618687112552</v>
+      </c>
+      <c r="H22">
+        <v>-0.4052905772030674</v>
+      </c>
+      <c r="I22">
+        <v>-0.04964535770729465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.002068620935267186</v>
+        <v>-0.008342622335605754</v>
       </c>
       <c r="C23">
-        <v>0.06379715689987925</v>
+        <v>-0.08822329279637699</v>
       </c>
       <c r="D23">
-        <v>0.2478691403976993</v>
+        <v>0.2572278607644329</v>
       </c>
       <c r="E23">
-        <v>0.01859195232528511</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.0554866436183868</v>
+      </c>
+      <c r="F23">
+        <v>0.005736836668064102</v>
+      </c>
+      <c r="G23">
+        <v>0.3759508960083757</v>
+      </c>
+      <c r="H23">
+        <v>-0.3898322704332081</v>
+      </c>
+      <c r="I23">
+        <v>-0.04156579233680482</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02350975563898947</v>
+        <v>0.01040267415100045</v>
       </c>
       <c r="C24">
-        <v>0.05590100468363459</v>
+        <v>-0.06541161818049969</v>
       </c>
       <c r="D24">
-        <v>0.0647270410063298</v>
+        <v>0.04985456689749056</v>
       </c>
       <c r="E24">
-        <v>0.00299736385489659</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02895133495071521</v>
+      </c>
+      <c r="F24">
+        <v>-0.002865822627083425</v>
+      </c>
+      <c r="G24">
+        <v>-0.008507525757203132</v>
+      </c>
+      <c r="H24">
+        <v>0.07054266271291139</v>
+      </c>
+      <c r="I24">
+        <v>-0.05280194488524161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02516805925857626</v>
+        <v>0.01459112146501835</v>
       </c>
       <c r="C25">
-        <v>0.0475302165734176</v>
+        <v>-0.06009439110796957</v>
       </c>
       <c r="D25">
-        <v>0.06114609779297064</v>
+        <v>0.05028136285171782</v>
       </c>
       <c r="E25">
-        <v>-0.0016762950989759</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01424394076392708</v>
+      </c>
+      <c r="F25">
+        <v>-0.004980392714793924</v>
+      </c>
+      <c r="G25">
+        <v>-0.01229679783723254</v>
+      </c>
+      <c r="H25">
+        <v>0.0374855271352499</v>
+      </c>
+      <c r="I25">
+        <v>-0.04115447436642863</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.006717623495622486</v>
+        <v>0.01457345803883165</v>
       </c>
       <c r="C26">
-        <v>0.01563879866895512</v>
+        <v>-0.02659117816791259</v>
       </c>
       <c r="D26">
-        <v>0.08066642672386588</v>
+        <v>0.06728322071802663</v>
       </c>
       <c r="E26">
-        <v>-0.01995839821127302</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.04144257858725511</v>
+      </c>
+      <c r="F26">
+        <v>0.04465552520497224</v>
+      </c>
+      <c r="G26">
+        <v>0.00122962756433</v>
+      </c>
+      <c r="H26">
+        <v>0.09647106495472123</v>
+      </c>
+      <c r="I26">
+        <v>0.0167318512417401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2564108995535411</v>
+        <v>0.3181238271304904</v>
       </c>
       <c r="C28">
-        <v>-0.2000792957759894</v>
+        <v>0.09444747264081604</v>
       </c>
       <c r="D28">
-        <v>0.01870539254772849</v>
+        <v>-0.0135386653694147</v>
       </c>
       <c r="E28">
-        <v>-0.06076505551908837</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.0498545691652797</v>
+      </c>
+      <c r="F28">
+        <v>0.04608456951937796</v>
+      </c>
+      <c r="G28">
+        <v>0.0416194723118184</v>
+      </c>
+      <c r="H28">
+        <v>-0.008087344847151047</v>
+      </c>
+      <c r="I28">
+        <v>0.06358635904982782</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.001781311999981751</v>
+        <v>0.0009433380347708652</v>
       </c>
       <c r="C29">
-        <v>0.0207965417962614</v>
+        <v>-0.03578034853378469</v>
       </c>
       <c r="D29">
-        <v>0.09536359575817416</v>
+        <v>0.1043511093579197</v>
       </c>
       <c r="E29">
-        <v>-0.01654631586698388</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.05662729868896193</v>
+      </c>
+      <c r="F29">
+        <v>0.04113470550710187</v>
+      </c>
+      <c r="G29">
+        <v>-0.001889073901187529</v>
+      </c>
+      <c r="H29">
+        <v>0.131707467527312</v>
+      </c>
+      <c r="I29">
+        <v>-0.02069308561292527</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02163780546623255</v>
+        <v>0.01410113468229922</v>
       </c>
       <c r="C30">
-        <v>0.05895726812704033</v>
+        <v>-0.08634644760300972</v>
       </c>
       <c r="D30">
-        <v>0.1650129609007334</v>
+        <v>0.1493912645091361</v>
       </c>
       <c r="E30">
-        <v>-0.0259029042728526</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05334630247909595</v>
+      </c>
+      <c r="F30">
+        <v>0.03139876780003104</v>
+      </c>
+      <c r="G30">
+        <v>0.02961329808291196</v>
+      </c>
+      <c r="H30">
+        <v>0.04613120288236094</v>
+      </c>
+      <c r="I30">
+        <v>-0.07249195690261979</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.03772335231059241</v>
+        <v>0.01046346154678532</v>
       </c>
       <c r="C31">
-        <v>0.08457420720688327</v>
+        <v>-0.09275548747639714</v>
       </c>
       <c r="D31">
-        <v>0.06857963863198377</v>
+        <v>0.04073164867053284</v>
       </c>
       <c r="E31">
-        <v>-0.01280512140376708</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01919385338996775</v>
+      </c>
+      <c r="F31">
+        <v>0.01572142399307748</v>
+      </c>
+      <c r="G31">
+        <v>0.00064820462780746</v>
+      </c>
+      <c r="H31">
+        <v>0.04651762749483521</v>
+      </c>
+      <c r="I31">
+        <v>0.0119199864373894</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01767360963680113</v>
+        <v>0.0106708533027674</v>
       </c>
       <c r="C32">
-        <v>0.03199494599376042</v>
+        <v>-0.04808626304017776</v>
       </c>
       <c r="D32">
-        <v>0.1001052622201847</v>
+        <v>0.1096513751364104</v>
       </c>
       <c r="E32">
-        <v>-0.06678274736638685</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.003039628553299788</v>
+      </c>
+      <c r="F32">
+        <v>0.05198604882863662</v>
+      </c>
+      <c r="G32">
+        <v>0.00748615589506344</v>
+      </c>
+      <c r="H32">
+        <v>0.05381536916152337</v>
+      </c>
+      <c r="I32">
+        <v>0.07591786254652849</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.008459820811042653</v>
+        <v>0.007281704284452232</v>
       </c>
       <c r="C33">
-        <v>0.04046506369632566</v>
+        <v>-0.05825161086743306</v>
       </c>
       <c r="D33">
-        <v>0.1373109971447294</v>
+        <v>0.1219643939474757</v>
       </c>
       <c r="E33">
-        <v>-0.04066818242277311</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02707147666721752</v>
+      </c>
+      <c r="F33">
+        <v>0.0295318250094413</v>
+      </c>
+      <c r="G33">
+        <v>0.0008820365061359953</v>
+      </c>
+      <c r="H33">
+        <v>0.06315121088502532</v>
+      </c>
+      <c r="I33">
+        <v>-0.01532638692944019</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.0214018823044964</v>
+        <v>0.00802771750136263</v>
       </c>
       <c r="C34">
-        <v>0.05845537055634822</v>
+        <v>-0.06172292380273239</v>
       </c>
       <c r="D34">
-        <v>0.04861215470962767</v>
+        <v>0.02890503866960014</v>
       </c>
       <c r="E34">
-        <v>0.04544848332063872</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02894724422687834</v>
+      </c>
+      <c r="F34">
+        <v>-0.03676494474710655</v>
+      </c>
+      <c r="G34">
+        <v>-0.01095576023031568</v>
+      </c>
+      <c r="H34">
+        <v>0.05774757495406434</v>
+      </c>
+      <c r="I34">
+        <v>-0.0303981519830283</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.002521622675641173</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.01026772244297905</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.03353178681052432</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.003439820538400304</v>
+      </c>
+      <c r="F35">
+        <v>0.01883122973956826</v>
+      </c>
+      <c r="G35">
+        <v>-0.0002294822060626448</v>
+      </c>
+      <c r="H35">
+        <v>0.04657248276583954</v>
+      </c>
+      <c r="I35">
+        <v>-0.03020651559428223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.006145661372313411</v>
+        <v>0.01221239539709055</v>
       </c>
       <c r="C36">
-        <v>0.006064004897117545</v>
+        <v>-0.02031079910266823</v>
       </c>
       <c r="D36">
-        <v>0.08557574134291579</v>
+        <v>0.07537095039122341</v>
       </c>
       <c r="E36">
-        <v>-0.0443589555829148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.02698201421931093</v>
+      </c>
+      <c r="F36">
+        <v>0.05002164672763147</v>
+      </c>
+      <c r="G36">
+        <v>0.003429135673045908</v>
+      </c>
+      <c r="H36">
+        <v>0.06487153511284281</v>
+      </c>
+      <c r="I36">
+        <v>0.006851835290509398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.004618928685036831</v>
+        <v>0.01429340074250192</v>
       </c>
       <c r="C38">
-        <v>0.006477810427443572</v>
+        <v>-0.01872796774923339</v>
       </c>
       <c r="D38">
-        <v>0.08784291329930957</v>
+        <v>0.08408829541442961</v>
       </c>
       <c r="E38">
-        <v>-0.0110806625707794</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.002635439957005286</v>
+      </c>
+      <c r="F38">
+        <v>0.001428491770359494</v>
+      </c>
+      <c r="G38">
+        <v>0.0236983281977817</v>
+      </c>
+      <c r="H38">
+        <v>0.06330472174246993</v>
+      </c>
+      <c r="I38">
+        <v>-0.01530550810595169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01535807372501495</v>
+        <v>0.004059974839670712</v>
       </c>
       <c r="C39">
-        <v>0.05662653772922766</v>
+        <v>-0.07506587977640987</v>
       </c>
       <c r="D39">
-        <v>0.1134382533620725</v>
+        <v>0.09587444624830836</v>
       </c>
       <c r="E39">
-        <v>0.0137282729186988</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.0533744654517601</v>
+      </c>
+      <c r="F39">
+        <v>-0.002573334878609119</v>
+      </c>
+      <c r="G39">
+        <v>-0.01049824611788503</v>
+      </c>
+      <c r="H39">
+        <v>0.09665866512099905</v>
+      </c>
+      <c r="I39">
+        <v>-0.06237637772920782</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.0108910158461826</v>
+        <v>0.01343891875724264</v>
       </c>
       <c r="C40">
-        <v>0.01757855181886245</v>
+        <v>-0.03082311931746147</v>
       </c>
       <c r="D40">
-        <v>0.1237538541181178</v>
+        <v>0.1027808582747849</v>
       </c>
       <c r="E40">
-        <v>0.01741237316392021</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.05019207062715951</v>
+      </c>
+      <c r="F40">
+        <v>-0.02177833770468194</v>
+      </c>
+      <c r="G40">
+        <v>0.04336407519193263</v>
+      </c>
+      <c r="H40">
+        <v>0.08979914743109267</v>
+      </c>
+      <c r="I40">
+        <v>0.09158121656185671</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.009844760803413613</v>
+        <v>0.01691728434025293</v>
       </c>
       <c r="C41">
-        <v>0.003180637849206946</v>
+        <v>-0.01656432987395099</v>
       </c>
       <c r="D41">
-        <v>0.04548087771977626</v>
+        <v>0.04642811400493486</v>
       </c>
       <c r="E41">
-        <v>-0.03252777903300218</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.008483554996347595</v>
+      </c>
+      <c r="F41">
+        <v>0.0245974453667359</v>
+      </c>
+      <c r="G41">
+        <v>0.005173051595742892</v>
+      </c>
+      <c r="H41">
+        <v>0.0452837870607541</v>
+      </c>
+      <c r="I41">
+        <v>-0.008598360279459432</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.003169432514198259</v>
+        <v>0.01042468205780828</v>
       </c>
       <c r="C43">
-        <v>0.003898605659779815</v>
+        <v>-0.01380683226617742</v>
       </c>
       <c r="D43">
-        <v>0.05532049226763937</v>
+        <v>0.05133060940522974</v>
       </c>
       <c r="E43">
-        <v>-0.02165406896196765</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.008488024582602014</v>
+      </c>
+      <c r="F43">
+        <v>0.02012611357125498</v>
+      </c>
+      <c r="G43">
+        <v>0.007714461722100192</v>
+      </c>
+      <c r="H43">
+        <v>0.05652287759211315</v>
+      </c>
+      <c r="I43">
+        <v>-0.0268129149906231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01605503390737501</v>
+        <v>0.01211266083878785</v>
       </c>
       <c r="C44">
-        <v>0.02239243763967357</v>
+        <v>-0.04634897888044115</v>
       </c>
       <c r="D44">
-        <v>0.1079586142800728</v>
+        <v>0.111099498593028</v>
       </c>
       <c r="E44">
-        <v>-0.04985889690509891</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.0391730696730552</v>
+      </c>
+      <c r="F44">
+        <v>0.03753766184186524</v>
+      </c>
+      <c r="G44">
+        <v>0.02722541720184719</v>
+      </c>
+      <c r="H44">
+        <v>0.05280394863921232</v>
+      </c>
+      <c r="I44">
+        <v>-0.0500008360847122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.005696543472106116</v>
+        <v>0.0004436688824832732</v>
       </c>
       <c r="C46">
-        <v>0.02892575813235672</v>
+        <v>-0.04082251589632489</v>
       </c>
       <c r="D46">
-        <v>0.08944457179927041</v>
+        <v>0.07547136844222416</v>
       </c>
       <c r="E46">
-        <v>-0.01763105437611091</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.04281963407018225</v>
+      </c>
+      <c r="F46">
+        <v>0.03559584985102155</v>
+      </c>
+      <c r="G46">
+        <v>0.01306924661847239</v>
+      </c>
+      <c r="H46">
+        <v>0.1330514127624627</v>
+      </c>
+      <c r="I46">
+        <v>-0.04159827171754965</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.07983484723908499</v>
+        <v>0.03550346290535946</v>
       </c>
       <c r="C47">
-        <v>0.1076118838501193</v>
+        <v>-0.1261453795326034</v>
       </c>
       <c r="D47">
-        <v>0.05798309595744779</v>
+        <v>0.02406135114610379</v>
       </c>
       <c r="E47">
-        <v>-0.02889589011441372</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.007448779615335618</v>
+      </c>
+      <c r="F47">
+        <v>-0.002833473906469524</v>
+      </c>
+      <c r="G47">
+        <v>-0.04214810697103191</v>
+      </c>
+      <c r="H47">
+        <v>0.0522243096932041</v>
+      </c>
+      <c r="I47">
+        <v>0.04983851553501145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.007107881198590709</v>
+        <v>0.0135442333772765</v>
       </c>
       <c r="C48">
-        <v>0.01539577099692315</v>
+        <v>-0.03051627742211172</v>
       </c>
       <c r="D48">
-        <v>0.08873843096357016</v>
+        <v>0.08080916164032577</v>
       </c>
       <c r="E48">
-        <v>-0.05637754408230366</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.01946317860419855</v>
+      </c>
+      <c r="F48">
+        <v>0.06044405973116152</v>
+      </c>
+      <c r="G48">
+        <v>0.009249018089186753</v>
+      </c>
+      <c r="H48">
+        <v>0.1037196995824465</v>
+      </c>
+      <c r="I48">
+        <v>-0.01282513086392041</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.03547575216495711</v>
+        <v>0.01558049714765074</v>
       </c>
       <c r="C50">
-        <v>0.05967101557136983</v>
+        <v>-0.07503712358830431</v>
       </c>
       <c r="D50">
-        <v>0.06091277265118394</v>
+        <v>0.04695938596385292</v>
       </c>
       <c r="E50">
-        <v>-0.008597515928823352</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01078590843078484</v>
+      </c>
+      <c r="F50">
+        <v>0.01042317790097731</v>
+      </c>
+      <c r="G50">
+        <v>0.01442799116353792</v>
+      </c>
+      <c r="H50">
+        <v>0.03695759125929273</v>
+      </c>
+      <c r="I50">
+        <v>0.02139739745219543</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.002297959487460904</v>
+        <v>-0.0002011425018933846</v>
       </c>
       <c r="C51">
-        <v>0.004128194387859849</v>
+        <v>-0.01665739923837589</v>
       </c>
       <c r="D51">
-        <v>0.05594594402303672</v>
+        <v>0.05803448035974731</v>
       </c>
       <c r="E51">
-        <v>-0.002096711467514055</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03860628959161118</v>
+      </c>
+      <c r="F51">
+        <v>0.03963383259743267</v>
+      </c>
+      <c r="G51">
+        <v>0.01909799111178721</v>
+      </c>
+      <c r="H51">
+        <v>0.0491300747100983</v>
+      </c>
+      <c r="I51">
+        <v>0.01290894845569754</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.108313466444826</v>
+        <v>0.05643787762620569</v>
       </c>
       <c r="C53">
-        <v>0.1243842764587433</v>
+        <v>-0.1559760121369831</v>
       </c>
       <c r="D53">
-        <v>0.01143961610391206</v>
+        <v>-0.01986658807716598</v>
       </c>
       <c r="E53">
-        <v>-0.06018373409628969</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02855079883094526</v>
+      </c>
+      <c r="F53">
+        <v>0.0500170549886997</v>
+      </c>
+      <c r="G53">
+        <v>0.001949113468687298</v>
+      </c>
+      <c r="H53">
+        <v>0.007231067921480956</v>
+      </c>
+      <c r="I53">
+        <v>0.02161208507374652</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.0115160327005499</v>
+        <v>0.009762090253410889</v>
       </c>
       <c r="C54">
-        <v>0.02059072618510287</v>
+        <v>-0.03718895025039626</v>
       </c>
       <c r="D54">
-        <v>0.09076482312746452</v>
+        <v>0.07713493369747403</v>
       </c>
       <c r="E54">
-        <v>-0.004908917550116495</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01494597177635316</v>
+      </c>
+      <c r="F54">
+        <v>0.00461602395720146</v>
+      </c>
+      <c r="G54">
+        <v>0.02631794388591482</v>
+      </c>
+      <c r="H54">
+        <v>0.08002665783964182</v>
+      </c>
+      <c r="I54">
+        <v>-0.03753348998119052</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09534568604977997</v>
+        <v>0.04340285973710116</v>
       </c>
       <c r="C55">
-        <v>0.1057932161458828</v>
+        <v>-0.1301975924582016</v>
       </c>
       <c r="D55">
-        <v>0.006097677925474328</v>
+        <v>-0.0312912796482015</v>
       </c>
       <c r="E55">
-        <v>-0.01136018884109236</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.003956326425084594</v>
+      </c>
+      <c r="F55">
+        <v>0.0141261358248798</v>
+      </c>
+      <c r="G55">
+        <v>0.005224762651379167</v>
+      </c>
+      <c r="H55">
+        <v>0.01613674924943969</v>
+      </c>
+      <c r="I55">
+        <v>0.04031544429080781</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1326841461589891</v>
+        <v>0.05780229861800946</v>
       </c>
       <c r="C56">
-        <v>0.1423401635013141</v>
+        <v>-0.1880735311871584</v>
       </c>
       <c r="D56">
-        <v>0.002270570001425806</v>
+        <v>-0.03135427183956956</v>
       </c>
       <c r="E56">
-        <v>-0.01115284744792234</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.02989480679893675</v>
+      </c>
+      <c r="F56">
+        <v>0.01700573712386425</v>
+      </c>
+      <c r="G56">
+        <v>0.05594775284827442</v>
+      </c>
+      <c r="H56">
+        <v>0.01088326493654181</v>
+      </c>
+      <c r="I56">
+        <v>0.05473685238526739</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.009602656807899634</v>
+        <v>0.007303986145270111</v>
       </c>
       <c r="C58">
-        <v>0.01145216962273156</v>
+        <v>-0.05270003997751032</v>
       </c>
       <c r="D58">
-        <v>0.2149093310692571</v>
+        <v>0.2715289329850977</v>
       </c>
       <c r="E58">
-        <v>-0.0823886294416962</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.01393555174731536</v>
+      </c>
+      <c r="F58">
+        <v>0.1055469132992007</v>
+      </c>
+      <c r="G58">
+        <v>0.1351990936566864</v>
+      </c>
+      <c r="H58">
+        <v>-0.0914862265869965</v>
+      </c>
+      <c r="I58">
+        <v>-0.04011763614253387</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1798662834837878</v>
+        <v>0.2525833728287527</v>
       </c>
       <c r="C59">
-        <v>-0.1481205397183465</v>
+        <v>0.06586874451459086</v>
       </c>
       <c r="D59">
-        <v>0.04518839134463334</v>
+        <v>0.05508166178763339</v>
       </c>
       <c r="E59">
-        <v>-0.03589572404296022</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02125116377029948</v>
+      </c>
+      <c r="F59">
+        <v>0.02377020823250892</v>
+      </c>
+      <c r="G59">
+        <v>0.01200250078625899</v>
+      </c>
+      <c r="H59">
+        <v>-0.004675410889913779</v>
+      </c>
+      <c r="I59">
+        <v>0.07397198473258328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1854897026220662</v>
+        <v>0.1499589462191586</v>
       </c>
       <c r="C60">
-        <v>0.09970720251212954</v>
+        <v>-0.1707680286880859</v>
       </c>
       <c r="D60">
-        <v>0.2063551445258163</v>
+        <v>0.08947197352559526</v>
       </c>
       <c r="E60">
-        <v>0.1616467058486299</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1679665057669364</v>
+      </c>
+      <c r="F60">
+        <v>-0.2229058609132658</v>
+      </c>
+      <c r="G60">
+        <v>-0.225352046938315</v>
+      </c>
+      <c r="H60">
+        <v>-0.2211594307724585</v>
+      </c>
+      <c r="I60">
+        <v>0.08472775303353931</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02499193599225952</v>
+        <v>0.01147089118888181</v>
       </c>
       <c r="C61">
-        <v>0.05327008209035659</v>
+        <v>-0.07338743524895236</v>
       </c>
       <c r="D61">
-        <v>0.09933634705186177</v>
+        <v>0.07914560390725321</v>
       </c>
       <c r="E61">
-        <v>0.00540989271251689</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03684595361767432</v>
+      </c>
+      <c r="F61">
+        <v>-0.0119790624017932</v>
+      </c>
+      <c r="G61">
+        <v>-0.02814867303014455</v>
+      </c>
+      <c r="H61">
+        <v>0.08779583901160654</v>
+      </c>
+      <c r="I61">
+        <v>-0.0324125641292739</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.006594776307196033</v>
+        <v>0.008319920501575675</v>
       </c>
       <c r="C63">
-        <v>0.02517319760032919</v>
+        <v>-0.03572458681257226</v>
       </c>
       <c r="D63">
-        <v>0.09352272382849836</v>
+        <v>0.06778585668150044</v>
       </c>
       <c r="E63">
-        <v>-0.01568811576280183</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.05603697366499868</v>
+      </c>
+      <c r="F63">
+        <v>0.02842044983821641</v>
+      </c>
+      <c r="G63">
+        <v>0.008702959255575656</v>
+      </c>
+      <c r="H63">
+        <v>0.06507573828749143</v>
+      </c>
+      <c r="I63">
+        <v>-0.03731558038194697</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05578194084520133</v>
+        <v>0.0202677818085596</v>
       </c>
       <c r="C64">
-        <v>0.08316887997858595</v>
+        <v>-0.1050376010403415</v>
       </c>
       <c r="D64">
-        <v>0.03799424390809428</v>
+        <v>0.02017703171681197</v>
       </c>
       <c r="E64">
-        <v>-0.01518317139578367</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02825589983789661</v>
+      </c>
+      <c r="F64">
+        <v>0.02057524387425788</v>
+      </c>
+      <c r="G64">
+        <v>-0.053429484750062</v>
+      </c>
+      <c r="H64">
+        <v>0.09163986266195262</v>
+      </c>
+      <c r="I64">
+        <v>-0.06759025684156138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02502712739694787</v>
+        <v>0.02172662299354809</v>
       </c>
       <c r="C65">
-        <v>0.01540819739832305</v>
+        <v>-0.04263682540311046</v>
       </c>
       <c r="D65">
-        <v>0.1153644045054059</v>
+        <v>0.1145331831985879</v>
       </c>
       <c r="E65">
-        <v>-0.006075084095882099</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04262714451633667</v>
+      </c>
+      <c r="F65">
+        <v>-0.005033084075618159</v>
+      </c>
+      <c r="G65">
+        <v>-0.02393248899728495</v>
+      </c>
+      <c r="H65">
+        <v>0.02473252442601397</v>
+      </c>
+      <c r="I65">
+        <v>-0.06008992012330602</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.01856914408352368</v>
+        <v>0.001196077325847253</v>
       </c>
       <c r="C66">
-        <v>0.06436909986373721</v>
+        <v>-0.09322566194036093</v>
       </c>
       <c r="D66">
-        <v>0.1197617350947318</v>
+        <v>0.1215232167380409</v>
       </c>
       <c r="E66">
-        <v>0.01687010595630966</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.04150877914724915</v>
+      </c>
+      <c r="F66">
+        <v>-0.008827712746365944</v>
+      </c>
+      <c r="G66">
+        <v>0.01147825513089825</v>
+      </c>
+      <c r="H66">
+        <v>0.05971914751517417</v>
+      </c>
+      <c r="I66">
+        <v>-0.04978705722852948</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02389422188770628</v>
+        <v>0.02471836643418647</v>
       </c>
       <c r="C67">
-        <v>0.01942426753899352</v>
+        <v>-0.0308390756985638</v>
       </c>
       <c r="D67">
-        <v>0.04424604454281993</v>
+        <v>0.03821805182361884</v>
       </c>
       <c r="E67">
-        <v>0.01512437186650547</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.0089604553741687</v>
+      </c>
+      <c r="F67">
+        <v>-0.02693007823178835</v>
+      </c>
+      <c r="G67">
+        <v>0.006491768636099137</v>
+      </c>
+      <c r="H67">
+        <v>0.06569192998924221</v>
+      </c>
+      <c r="I67">
+        <v>-0.01893961339389359</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2041517413894505</v>
+        <v>0.2730423787440829</v>
       </c>
       <c r="C68">
-        <v>-0.1573410876904145</v>
+        <v>0.07061053542980468</v>
       </c>
       <c r="D68">
-        <v>0.03009199105161468</v>
+        <v>0.02297048870365029</v>
       </c>
       <c r="E68">
-        <v>-0.007567201293275303</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.005721612311483922</v>
+      </c>
+      <c r="F68">
+        <v>0.02457641843871161</v>
+      </c>
+      <c r="G68">
+        <v>0.070922542942156</v>
+      </c>
+      <c r="H68">
+        <v>-0.04857603382404277</v>
+      </c>
+      <c r="I68">
+        <v>0.06442808939275139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.05678079707321716</v>
+        <v>0.02041134400111693</v>
       </c>
       <c r="C69">
-        <v>0.1145189862414983</v>
+        <v>-0.1182261475200238</v>
       </c>
       <c r="D69">
-        <v>0.08139311316551737</v>
+        <v>0.03377565919912629</v>
       </c>
       <c r="E69">
-        <v>-0.01705685494666486</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.009195780364525565</v>
+      </c>
+      <c r="F69">
+        <v>-0.0058494287271244</v>
+      </c>
+      <c r="G69">
+        <v>-0.02478221202683461</v>
+      </c>
+      <c r="H69">
+        <v>0.04251528005396823</v>
+      </c>
+      <c r="I69">
+        <v>0.02840755671755244</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2140094500629415</v>
+        <v>0.2744816913418174</v>
       </c>
       <c r="C71">
-        <v>-0.1806395357369424</v>
+        <v>0.08348748826442846</v>
       </c>
       <c r="D71">
-        <v>0.01990951318008101</v>
+        <v>0.01516154179818635</v>
       </c>
       <c r="E71">
-        <v>-0.01348403690448893</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.001326052798614199</v>
+      </c>
+      <c r="F71">
+        <v>0.01958728089434097</v>
+      </c>
+      <c r="G71">
+        <v>0.03315491795187881</v>
+      </c>
+      <c r="H71">
+        <v>0.02342502607733183</v>
+      </c>
+      <c r="I71">
+        <v>0.07261457964319613</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1047336903168961</v>
+        <v>0.05685431332187214</v>
       </c>
       <c r="C72">
-        <v>0.07557170559925967</v>
+        <v>-0.1248037097768727</v>
       </c>
       <c r="D72">
-        <v>0.1099901504358936</v>
+        <v>0.05796465015822389</v>
       </c>
       <c r="E72">
-        <v>0.04648755810865784</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.07038762594034215</v>
+      </c>
+      <c r="F72">
+        <v>-0.02801849404080832</v>
+      </c>
+      <c r="G72">
+        <v>-0.03729338094174844</v>
+      </c>
+      <c r="H72">
+        <v>0.05215740673914418</v>
+      </c>
+      <c r="I72">
+        <v>-0.06429228584812133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1720116050786228</v>
+        <v>0.142058244399884</v>
       </c>
       <c r="C73">
-        <v>0.06401591649814099</v>
+        <v>-0.1440820631173395</v>
       </c>
       <c r="D73">
-        <v>0.2764831894485814</v>
+        <v>0.1012634994529974</v>
       </c>
       <c r="E73">
-        <v>0.2454453900470846</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.2948082616145076</v>
+      </c>
+      <c r="F73">
+        <v>-0.3158019567606439</v>
+      </c>
+      <c r="G73">
+        <v>-0.4098698449300652</v>
+      </c>
+      <c r="H73">
+        <v>-0.1576831550397735</v>
+      </c>
+      <c r="I73">
+        <v>0.006113011492582069</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1075725372365047</v>
+        <v>0.0506578557687801</v>
       </c>
       <c r="C74">
-        <v>0.1149517605335564</v>
+        <v>-0.1458463905543536</v>
       </c>
       <c r="D74">
-        <v>-0.01721864846060486</v>
+        <v>-0.04032678396991243</v>
       </c>
       <c r="E74">
-        <v>-0.04128368148721708</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01036837078882006</v>
+      </c>
+      <c r="F74">
+        <v>0.03759281601218616</v>
+      </c>
+      <c r="G74">
+        <v>-0.00649486703963179</v>
+      </c>
+      <c r="H74">
+        <v>-0.01093308054068935</v>
+      </c>
+      <c r="I74">
+        <v>0.06259861399907944</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2337917287925643</v>
+        <v>0.1106098565956866</v>
       </c>
       <c r="C75">
-        <v>0.1998247637990638</v>
+        <v>-0.2685970093388265</v>
       </c>
       <c r="D75">
-        <v>-0.1010148378691914</v>
+        <v>-0.1362243166411921</v>
       </c>
       <c r="E75">
-        <v>0.02895675263419816</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.08739441857497729</v>
+      </c>
+      <c r="F75">
+        <v>-0.031319226074222</v>
+      </c>
+      <c r="G75">
+        <v>0.09092193053299397</v>
+      </c>
+      <c r="H75">
+        <v>0.01897341252755236</v>
+      </c>
+      <c r="I75">
+        <v>0.04705702001447208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1393189699578729</v>
+        <v>0.06303479686580761</v>
       </c>
       <c r="C76">
-        <v>0.1387429923870567</v>
+        <v>-0.1819345344747023</v>
       </c>
       <c r="D76">
-        <v>0.01694525886914913</v>
+        <v>-0.03608390222167465</v>
       </c>
       <c r="E76">
-        <v>-0.01090817208596344</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02146996663909623</v>
+      </c>
+      <c r="F76">
+        <v>0.004464097160861716</v>
+      </c>
+      <c r="G76">
+        <v>0.03499693822325387</v>
+      </c>
+      <c r="H76">
+        <v>0.03583555393714349</v>
+      </c>
+      <c r="I76">
+        <v>0.03801452324967507</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02147971454534429</v>
+        <v>0.002472871682074583</v>
       </c>
       <c r="C77">
-        <v>0.06817594528906457</v>
+        <v>-0.1073809213136825</v>
       </c>
       <c r="D77">
-        <v>-0.002247973966641337</v>
+        <v>0.3154050722277269</v>
       </c>
       <c r="E77">
-        <v>-0.2243756616584447</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.840069314850709</v>
+      </c>
+      <c r="F77">
+        <v>-0.2283061871438497</v>
+      </c>
+      <c r="G77">
+        <v>-0.2102229238397983</v>
+      </c>
+      <c r="H77">
+        <v>-0.1486562743672646</v>
+      </c>
+      <c r="I77">
+        <v>0.003809666449414148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02561171037085166</v>
+        <v>0.01706264123186145</v>
       </c>
       <c r="C78">
-        <v>0.06820497324903418</v>
+        <v>-0.0897017852020698</v>
       </c>
       <c r="D78">
-        <v>0.1515070306747187</v>
+        <v>0.1193356524808839</v>
       </c>
       <c r="E78">
-        <v>-0.04569372417484711</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.06805609819191007</v>
+      </c>
+      <c r="F78">
+        <v>0.04302020119465207</v>
+      </c>
+      <c r="G78">
+        <v>0.03122831881076516</v>
+      </c>
+      <c r="H78">
+        <v>0.02380589690370211</v>
+      </c>
+      <c r="I78">
+        <v>0.1098904775796052</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.09568493122659295</v>
+        <v>0.03613277809221609</v>
       </c>
       <c r="C79">
-        <v>0.1754063116476482</v>
+        <v>-0.1920010958396928</v>
       </c>
       <c r="D79">
-        <v>-0.1021191463882612</v>
+        <v>-0.07240545835715807</v>
       </c>
       <c r="E79">
-        <v>-0.8015074469644241</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.05139700109602306</v>
+      </c>
+      <c r="F79">
+        <v>0.7742435626558698</v>
+      </c>
+      <c r="G79">
+        <v>-0.3942050340466402</v>
+      </c>
+      <c r="H79">
+        <v>-0.3193685652343067</v>
+      </c>
+      <c r="I79">
+        <v>-0.08315853436434907</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.004743634937989991</v>
+        <v>0.005443827582379992</v>
       </c>
       <c r="C80">
-        <v>0.04623548237912708</v>
+        <v>-0.04631414578422473</v>
       </c>
       <c r="D80">
-        <v>0.05174059699906498</v>
+        <v>0.04174037756412928</v>
       </c>
       <c r="E80">
-        <v>0.007520793516662885</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04362264856115849</v>
+      </c>
+      <c r="F80">
+        <v>0.005734416758827764</v>
+      </c>
+      <c r="G80">
+        <v>0.0156139822662148</v>
+      </c>
+      <c r="H80">
+        <v>0.02815099370023325</v>
+      </c>
+      <c r="I80">
+        <v>0.07183296120257104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1190632601266664</v>
+        <v>0.04474161873395514</v>
       </c>
       <c r="C81">
-        <v>0.1349944692326656</v>
+        <v>-0.1681957063727681</v>
       </c>
       <c r="D81">
-        <v>-0.06908588803049144</v>
+        <v>-0.0760434865409878</v>
       </c>
       <c r="E81">
-        <v>-0.06050037039330125</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.04886384812052342</v>
+      </c>
+      <c r="F81">
+        <v>0.06465942277077356</v>
+      </c>
+      <c r="G81">
+        <v>0.0418674703075733</v>
+      </c>
+      <c r="H81">
+        <v>0.08214448123171421</v>
+      </c>
+      <c r="I81">
+        <v>0.06505730928227424</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2517370020613912</v>
+        <v>0.09261642577063249</v>
       </c>
       <c r="C82">
-        <v>0.2987786063188255</v>
+        <v>-0.3239510864224487</v>
       </c>
       <c r="D82">
-        <v>-0.1979938559048096</v>
+        <v>-0.2358012308876692</v>
       </c>
       <c r="E82">
-        <v>0.1417754662557481</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.05585127952977206</v>
+      </c>
+      <c r="F82">
+        <v>-0.1054681467019838</v>
+      </c>
+      <c r="G82">
+        <v>0.08968984365399529</v>
+      </c>
+      <c r="H82">
+        <v>0.1175878180670023</v>
+      </c>
+      <c r="I82">
+        <v>0.04101820961398794</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.008135243116978155</v>
+        <v>-0.01434965615861685</v>
       </c>
       <c r="C83">
-        <v>0.05089305234305797</v>
+        <v>-0.02555348479259731</v>
       </c>
       <c r="D83">
-        <v>0.001813934751859586</v>
+        <v>0.02725424320366772</v>
       </c>
       <c r="E83">
-        <v>-0.05804615678021319</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.0793305392876664</v>
+      </c>
+      <c r="F83">
+        <v>0.07290678682494281</v>
+      </c>
+      <c r="G83">
+        <v>0.04313684877746272</v>
+      </c>
+      <c r="H83">
+        <v>0.0926986826412521</v>
+      </c>
+      <c r="I83">
+        <v>0.7586852144814341</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0005475979738168745</v>
+        <v>-0.000858462091239822</v>
       </c>
       <c r="C84">
-        <v>-0.001614974706295011</v>
+        <v>-0.01942869637509572</v>
       </c>
       <c r="D84">
-        <v>0.004802749530286201</v>
+        <v>0.04769638438574456</v>
       </c>
       <c r="E84">
-        <v>-0.000393600771483695</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.002860862762579454</v>
+      </c>
+      <c r="F84">
+        <v>0.02810778519988171</v>
+      </c>
+      <c r="G84">
+        <v>0.05143126766306125</v>
+      </c>
+      <c r="H84">
+        <v>0.01423922869758858</v>
+      </c>
+      <c r="I84">
+        <v>-0.06172996205386055</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1410606374880545</v>
+        <v>0.05899365015527439</v>
       </c>
       <c r="C85">
-        <v>0.1391743206927483</v>
+        <v>-0.1836845232838934</v>
       </c>
       <c r="D85">
-        <v>-0.03699234848856092</v>
+        <v>-0.08993723801767581</v>
       </c>
       <c r="E85">
-        <v>-0.02589521476543831</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.002785457008624218</v>
+      </c>
+      <c r="F85">
+        <v>0.07511258858898856</v>
+      </c>
+      <c r="G85">
+        <v>0.01954726713350808</v>
+      </c>
+      <c r="H85">
+        <v>0.001973851490495277</v>
+      </c>
+      <c r="I85">
+        <v>0.03948858673377828</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01330736794968909</v>
+        <v>0.01320254511642015</v>
       </c>
       <c r="C86">
-        <v>0.01474281244459452</v>
+        <v>-0.03279981262014327</v>
       </c>
       <c r="D86">
-        <v>0.07808926029785007</v>
+        <v>0.1003862748037104</v>
       </c>
       <c r="E86">
-        <v>-0.0507085443118212</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02283335760276759</v>
+      </c>
+      <c r="F86">
+        <v>-0.000539073040128111</v>
+      </c>
+      <c r="G86">
+        <v>-0.01218650074088192</v>
+      </c>
+      <c r="H86">
+        <v>0.02332368310285093</v>
+      </c>
+      <c r="I86">
+        <v>0.04848756606032335</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01949666114863015</v>
+        <v>0.01217331646999561</v>
       </c>
       <c r="C87">
-        <v>0.02411070215056358</v>
+        <v>-0.05747702185696833</v>
       </c>
       <c r="D87">
-        <v>0.1343073112375689</v>
+        <v>0.1453040879636266</v>
       </c>
       <c r="E87">
-        <v>-0.05494023557124289</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.01268392050966089</v>
+      </c>
+      <c r="F87">
+        <v>0.04233289597009122</v>
+      </c>
+      <c r="G87">
+        <v>0.05440942614083582</v>
+      </c>
+      <c r="H87">
+        <v>0.03126961653156654</v>
+      </c>
+      <c r="I87">
+        <v>0.02329880190879521</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05306761069086215</v>
+        <v>0.03484349316128091</v>
       </c>
       <c r="C88">
-        <v>0.04502333858397295</v>
+        <v>-0.06665386606519043</v>
       </c>
       <c r="D88">
-        <v>0.02752776505032315</v>
+        <v>0.01252385217226031</v>
       </c>
       <c r="E88">
-        <v>-0.03035794401691015</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02683659398436751</v>
+      </c>
+      <c r="F88">
+        <v>0.01891619353707099</v>
+      </c>
+      <c r="G88">
+        <v>-0.01126078744287433</v>
+      </c>
+      <c r="H88">
+        <v>0.01731369727279947</v>
+      </c>
+      <c r="I88">
+        <v>-0.01424734380544615</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3204739607940993</v>
+        <v>0.4067574933374285</v>
       </c>
       <c r="C89">
-        <v>-0.326526559247062</v>
+        <v>0.1582287975217835</v>
       </c>
       <c r="D89">
-        <v>0.01268864947899073</v>
+        <v>0.02638160997933448</v>
       </c>
       <c r="E89">
-        <v>-0.09615758973125445</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.05541749145862433</v>
+      </c>
+      <c r="F89">
+        <v>0.06962942675414235</v>
+      </c>
+      <c r="G89">
+        <v>0.04137963570446526</v>
+      </c>
+      <c r="H89">
+        <v>0.09933504976468092</v>
+      </c>
+      <c r="I89">
+        <v>-0.07668849460071642</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2551320650360737</v>
+        <v>0.31858105123598</v>
       </c>
       <c r="C90">
-        <v>-0.2391997129504452</v>
+        <v>0.1056392414613455</v>
       </c>
       <c r="D90">
-        <v>0.04013930507979586</v>
+        <v>0.0350813820730072</v>
       </c>
       <c r="E90">
-        <v>0.007212156691492044</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01143392722288104</v>
+      </c>
+      <c r="F90">
+        <v>-0.008322479899110979</v>
+      </c>
+      <c r="G90">
+        <v>0.05768962351398945</v>
+      </c>
+      <c r="H90">
+        <v>0.001506122106429096</v>
+      </c>
+      <c r="I90">
+        <v>0.07157370554507578</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1555689615578763</v>
+        <v>0.06939433815463887</v>
       </c>
       <c r="C91">
-        <v>0.1882834097279688</v>
+        <v>-0.2093173617391134</v>
       </c>
       <c r="D91">
-        <v>-0.09924380993060034</v>
+        <v>-0.111423215225581</v>
       </c>
       <c r="E91">
-        <v>-0.09072368870181755</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06058512279935306</v>
+      </c>
+      <c r="F91">
+        <v>0.07240726974993375</v>
+      </c>
+      <c r="G91">
+        <v>0.004929685490554934</v>
+      </c>
+      <c r="H91">
+        <v>0.004033402632490539</v>
+      </c>
+      <c r="I91">
+        <v>0.06977426026648118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2413090462097937</v>
+        <v>0.3371763582626798</v>
       </c>
       <c r="C92">
-        <v>-0.2612351990517763</v>
+        <v>0.1441262767879879</v>
       </c>
       <c r="D92">
-        <v>-0.0536594237475688</v>
+        <v>0.0008379972308361611</v>
       </c>
       <c r="E92">
-        <v>-0.04915078590938914</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06484627421199587</v>
+      </c>
+      <c r="F92">
+        <v>0.02910898043103583</v>
+      </c>
+      <c r="G92">
+        <v>0.02605070834197422</v>
+      </c>
+      <c r="H92">
+        <v>0.01784978264870355</v>
+      </c>
+      <c r="I92">
+        <v>-0.2404944895644943</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2800465468912525</v>
+        <v>0.3347229898449026</v>
       </c>
       <c r="C93">
-        <v>-0.2509218673068828</v>
+        <v>0.117931992710161</v>
       </c>
       <c r="D93">
-        <v>0.01472937563210519</v>
+        <v>-0.01954052140997536</v>
       </c>
       <c r="E93">
-        <v>-0.004052323449582151</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02474481616871956</v>
+      </c>
+      <c r="F93">
+        <v>0.00820113001420575</v>
+      </c>
+      <c r="G93">
+        <v>-0.02007241194160161</v>
+      </c>
+      <c r="H93">
+        <v>-0.002192361271181059</v>
+      </c>
+      <c r="I93">
+        <v>0.01869753312336766</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2959402923286674</v>
+        <v>0.1296278622196881</v>
       </c>
       <c r="C94">
-        <v>0.2742711058587118</v>
+        <v>-0.3519647939244172</v>
       </c>
       <c r="D94">
-        <v>-0.3513896331327855</v>
+        <v>-0.3631388416690626</v>
       </c>
       <c r="E94">
-        <v>0.2156553598860967</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.06351838542023813</v>
+      </c>
+      <c r="F94">
+        <v>-0.107667855459348</v>
+      </c>
+      <c r="G94">
+        <v>0.3233757146417747</v>
+      </c>
+      <c r="H94">
+        <v>-0.05213086316562697</v>
+      </c>
+      <c r="I94">
+        <v>-0.2125287162156004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.01458126860872032</v>
+        <v>0.01916487029184317</v>
       </c>
       <c r="C95">
-        <v>0.03711959733566383</v>
+        <v>-0.06301165774834423</v>
       </c>
       <c r="D95">
-        <v>0.02311697443485123</v>
+        <v>0.1134200440001371</v>
       </c>
       <c r="E95">
-        <v>-0.08846689469195879</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1529624585052569</v>
+      </c>
+      <c r="F95">
+        <v>-0.01341612226513254</v>
+      </c>
+      <c r="G95">
+        <v>-0.0831882695435921</v>
+      </c>
+      <c r="H95">
+        <v>0.3474647786919393</v>
+      </c>
+      <c r="I95">
+        <v>-0.3140139025454895</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001203596015825707</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0005493862472126188</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0007112391081495516</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003431615312234629</v>
+      </c>
+      <c r="F97">
+        <v>0.0002291224474623061</v>
+      </c>
+      <c r="G97">
+        <v>0.0003472195698034059</v>
+      </c>
+      <c r="H97">
+        <v>0.003056461973829739</v>
+      </c>
+      <c r="I97">
+        <v>-0.004857617313479486</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1434894215497892</v>
+        <v>0.1155865502920358</v>
       </c>
       <c r="C98">
-        <v>0.08586405404703361</v>
+        <v>-0.1496666124929147</v>
       </c>
       <c r="D98">
-        <v>0.156923254374928</v>
+        <v>0.06720580572721899</v>
       </c>
       <c r="E98">
-        <v>0.1934209128299582</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.2035820470743716</v>
+      </c>
+      <c r="F98">
+        <v>-0.2457469010589798</v>
+      </c>
+      <c r="G98">
+        <v>-0.2822188241094353</v>
+      </c>
+      <c r="H98">
+        <v>-0.1747573406535377</v>
+      </c>
+      <c r="I98">
+        <v>0.03232654710019688</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.001058570376854312</v>
+        <v>0.001430332513649089</v>
       </c>
       <c r="C101">
-        <v>0.02006984401802467</v>
+        <v>-0.03503050318969029</v>
       </c>
       <c r="D101">
-        <v>0.09513480573452614</v>
+        <v>0.103519681492753</v>
       </c>
       <c r="E101">
-        <v>-0.01769273042000122</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.0559373384306646</v>
+      </c>
+      <c r="F101">
+        <v>0.04133786192472158</v>
+      </c>
+      <c r="G101">
+        <v>-0.001109154177742246</v>
+      </c>
+      <c r="H101">
+        <v>0.1320667517424338</v>
+      </c>
+      <c r="I101">
+        <v>-0.02052436509170511</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1059060693621715</v>
+        <v>0.02933795007308663</v>
       </c>
       <c r="C102">
-        <v>0.1587712077997907</v>
+        <v>-0.1502282032588824</v>
       </c>
       <c r="D102">
-        <v>-0.0604380887131499</v>
+        <v>-0.09516211885463619</v>
       </c>
       <c r="E102">
-        <v>0.05213332650534259</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03405280111581949</v>
+      </c>
+      <c r="F102">
+        <v>-0.06276509935645988</v>
+      </c>
+      <c r="G102">
+        <v>-0.009395357590457117</v>
+      </c>
+      <c r="H102">
+        <v>0.05234162083541815</v>
+      </c>
+      <c r="I102">
+        <v>0.02910123758788309</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
